--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.247099999999997</v>
+        <v>-7.232099999999998</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.45829999999999</v>
+        <v>-12.28499999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.12389999999999</v>
+        <v>-13.12289999999999</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7429</v>
+        <v>-10.8028</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.087</v>
+        <v>-7.963799999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -740,10 +740,10 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.06209999999999</v>
+        <v>-14.01479999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.711099999999986</v>
+        <v>-8.530599999999993</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.650199999999999</v>
+        <v>-7.912899999999994</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.166100000000001</v>
+        <v>-7.315700000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.246300000000007</v>
+        <v>-7.288400000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.524099999999999</v>
+        <v>-8.537499999999996</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.93020000000001</v>
+        <v>-12.80400000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.739099999999995</v>
+        <v>-8.157799999999991</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.122400000000001</v>
+        <v>-8.146499999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.09099999999999</v>
+        <v>-14.0446</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,10 +1590,10 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.8487</v>
+        <v>-10.9615</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.0563</v>
+        <v>-7.165399999999994</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.317199999999999</v>
+        <v>-7.2878</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-12.0177</v>
+        <v>-12.4132</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.23220000000001</v>
+        <v>-12.51970000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.917</v>
+        <v>-13.0803</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.20159999999999</v>
+        <v>-12.322</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.905999999999993</v>
+        <v>-7.938299999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.501699999999992</v>
+        <v>-7.462399999999998</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.508300000000003</v>
+        <v>-7.420500000000003</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.342300000000002</v>
+        <v>-8.296600000000005</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.690200000000001</v>
+        <v>-7.758699999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.7337</v>
+        <v>-7.727399999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
